--- a/SMO/TemplateExcel/Template_BM_01E.xlsx
+++ b/SMO/TemplateExcel/Template_BM_01E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/D00C4E3DC8E2BEE2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2Sprojsct\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7E17D84A-BD9A-4776-A26A-AA2C0E2A9F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857E21F3-ECE9-4BC9-9246-F36015CD1D62}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F18AC6-2EAE-4ED2-846B-4AE54C36C011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09CCC407-8BD6-4090-9472-FD3C7D5BF3F3}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15840" xr2:uid="{09CCC407-8BD6-4090-9472-FD3C7D5BF3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,11 +157,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -575,7 +572,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -599,132 +596,41 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -734,6 +640,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,32 +685,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1100,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1869AB1-237A-4A5B-9934-96AFF164A75F}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1131,10 +1095,10 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="62"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1151,104 +1115,104 @@
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="56" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="55" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="59"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="37"/>
     </row>
     <row r="8" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -1257,16 +1221,16 @@
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="12"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -1275,16 +1239,16 @@
       <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="12"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1293,148 +1257,148 @@
       <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="12"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="24"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="24"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="47"/>
     </row>
     <row r="17" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="33"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -1443,64 +1407,64 @@
       <c r="B19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="12"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="42"/>
     </row>
     <row r="20" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="12"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="12"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="12"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -1509,64 +1473,64 @@
       <c r="B23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="12"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="12"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="12"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="12"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1575,82 +1539,82 @@
       <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="12"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+      <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
     </row>
     <row r="29" spans="1:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="36"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="24"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="47"/>
     </row>
     <row r="31" spans="1:12" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="33"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="50"/>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -1659,16 +1623,16 @@
       <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="12"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
@@ -1677,16 +1641,16 @@
       <c r="B33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="12"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="42"/>
     </row>
     <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -1695,16 +1659,16 @@
       <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="12"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -1713,138 +1677,131 @@
       <c r="B35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="12"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="12"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41">
-        <f>E12</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="45"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="56"/>
     </row>
     <row r="38" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="41">
-        <f>E37</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="46"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49">
-        <f>E14</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
     </row>
     <row r="40" spans="1:12" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="61" t="s">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -1858,8 +1815,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
